--- a/Assets/StreamingAssets/Songs/3-宵々古今/Chart4.xlsx
+++ b/Assets/StreamingAssets/Songs/3-宵々古今/Chart4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\StreamingAssets\Songs\宵々古今\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-main\Assets\StreamingAssets\Songs\3-宵々古今\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F4AD36-EBF9-418D-A380-D433F4E2587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F97297-97B6-4555-9B0F-4B201B5D3CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="7" r:id="rId1"/>
@@ -25,10 +25,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">star!$O$24:$O$25</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -650,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A659A544-EEBF-4B0A-BA48-BF8FB53EE0AE}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -14548,8 +14557,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16737,7 +16746,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -16801,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -16833,7 +16842,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -16897,7 +16906,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -19182,7 +19191,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -19246,7 +19255,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -19278,7 +19287,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -19342,7 +19351,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="I147">
         <v>1</v>

--- a/Assets/StreamingAssets/Songs/3-宵々古今/Chart4.xlsx
+++ b/Assets/StreamingAssets/Songs/3-宵々古今/Chart4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-main\Assets\StreamingAssets\Songs\3-宵々古今\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\StreamingAssets\Songs\3-宵々古今\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F97297-97B6-4555-9B0F-4B201B5D3CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF46B3D7-8BE1-409C-9053-3D151F8D6030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="7" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="7" r:id="rId1"/>
@@ -25,19 +25,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">star!$O$24:$O$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -14557,8 +14548,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16842,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="I70">
         <v>0</v>
